--- a/Data Model.xlsx
+++ b/Data Model.xlsx
@@ -1344,7 +1344,7 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/Data Model.xlsx
+++ b/Data Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12015" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Movie" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,17 @@
     <sheet name="Principles" sheetId="5" r:id="rId4"/>
     <sheet name="Ratings" sheetId="6" r:id="rId5"/>
     <sheet name="Name_Basics" sheetId="7" r:id="rId6"/>
+    <sheet name="Movies" sheetId="8" r:id="rId7"/>
+    <sheet name="Crew" sheetId="9" r:id="rId8"/>
+    <sheet name="Names" sheetId="10" r:id="rId9"/>
+    <sheet name="Recommendations" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>IMDB_ID</t>
   </si>
@@ -115,6 +119,21 @@
   </si>
   <si>
     <t>Known_for_titles</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Movie_1</t>
+  </si>
+  <si>
+    <t>Movie_2</t>
   </si>
 </sst>
 </file>
@@ -122,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -136,6 +155,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,6 +210,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -158,8 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +254,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -181,100 +269,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,25 +308,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,49 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,42 +476,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -416,54 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,26 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +541,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,6 +567,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,162 +599,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,16 +1094,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1238,10 +1301,13 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1298,6 +1364,163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B4"/>
@@ -1318,18 +1541,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1338,19 +1561,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="45.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1362,42 +1582,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
